--- a/Scrum Documents/Sprint 3/Sprint 3 Burnup Chart.xlsx
+++ b/Scrum Documents/Sprint 3/Sprint 3 Burnup Chart.xlsx
@@ -149,11 +149,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1354827595"/>
-        <c:axId val="908240905"/>
+        <c:axId val="517995235"/>
+        <c:axId val="1307315800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1354827595"/>
+        <c:axId val="517995235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -168,10 +168,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="908240905"/>
+        <c:crossAx val="1307315800"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="908240905"/>
+        <c:axId val="1307315800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -202,7 +202,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1354827595"/>
+        <c:crossAx val="517995235"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
